--- a/Electronica/END_DEVICE_PCB_V1.0/eleccion uso control de carga.xlsx
+++ b/Electronica/END_DEVICE_PCB_V1.0/eleccion uso control de carga.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\fercho\empresas\modulo\repositorio\module\FINANZAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PROJECTS\AEI PROJECT\AEI_IOT_V1.0\modulo\Electronica\END_DEVICE_PCB_V1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48504FE6-D90E-47FF-A798-722F79585994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4ED378E-EDE4-4EA8-B5C8-C9569B1B96C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Elección uso control de carga</t>
   </si>
@@ -46,15 +45,35 @@
   </si>
   <si>
     <t>2. disminuye tamaño tarjeta end-device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. No es necesario una LI-PO safe bag. </t>
+  </si>
+  <si>
+    <t>3. disminuye consumo nominal del end-device.</t>
+  </si>
+  <si>
+    <t>3. Prolonga vida util de baterias LI-ION / LI-PO</t>
+  </si>
+  <si>
+    <t>5. Proteccion contra corto circuito.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,13 +135,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,98 +463,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646C9C6B-FF03-452C-9A8C-36BD16E9AB4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>